--- a/bigsurvey/stub-files/incorrect_date_format.xlsx
+++ b/bigsurvey/stub-files/incorrect_date_format.xlsx
@@ -80,7 +80,7 @@
     <t>CustomerZip</t>
   </si>
   <si>
-    <t>Residental</t>
+    <t>Residential</t>
   </si>
   <si>
     <t>W. 24TH ST.</t>
@@ -285,7 +285,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -298,7 +298,7 @@
   <dimension ref="A1:U65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
